--- a/biology/Origine et évolution du vivant/Sur_la_terre_des_géants/Sur_la_terre_des_géants.xlsx
+++ b/biology/Origine et évolution du vivant/Sur_la_terre_des_géants/Sur_la_terre_des_géants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sur_la_terre_des_g%C3%A9ants</t>
+          <t>Sur_la_terre_des_géants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur la terre des géants (en anglais : Walking With Monsters) est une série télévisée documentaire britannique en trois épisodes, partiellement tournée en images de synthèse, diffusé pour la première fois sur la chaine BBC en novembre 2005. Son originalité est de retracer l'histoire de l'ère du Paléozoïque et une partie du Mésozoïque, c'est-à-dire du Cambrien au Trias  inférieur (de -530 à -248 millions d'années), et ce, avant l'apparition des dinosaures[1]. Troisième série de Sur la terre de..., il est le préquel des documentaires Sur la terre des dinosaures et Sur la terre des monstres disparus, qui présentent les faunes des ères Mésozoïque et du Cénozoïque. La voix française du narrateur est interprétée par André Dussollier (Kenneth Branagh dans la version originale).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la terre des géants (en anglais : Walking With Monsters) est une série télévisée documentaire britannique en trois épisodes, partiellement tournée en images de synthèse, diffusé pour la première fois sur la chaine BBC en novembre 2005. Son originalité est de retracer l'histoire de l'ère du Paléozoïque et une partie du Mésozoïque, c'est-à-dire du Cambrien au Trias  inférieur (de -530 à -248 millions d'années), et ce, avant l'apparition des dinosaures. Troisième série de Sur la terre de..., il est le préquel des documentaires Sur la terre des dinosaures et Sur la terre des monstres disparus, qui présentent les faunes des ères Mésozoïque et du Cénozoïque. La voix française du narrateur est interprétée par André Dussollier (Kenneth Branagh dans la version originale).
 Les programmes audiovisuels décrivant cette époque sont très rares, et la série est remarquable à ce titre, en dépit de quelques approximations possibles (voir « critiques »).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sur_la_terre_des_g%C3%A9ants</t>
+          <t>Sur_la_terre_des_géants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sur_la_terre_des_g%C3%A9ants</t>
+          <t>Sur_la_terre_des_géants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme certains films et séries TV récents à but pédagogique, la série (comme les trois autres du même cycle) a parfois bénéficié de critiques élogieuses, fondées sur l'abondance de la documentation, la qualité de la reconstitution des écosystèmes et la vraisemblance des scènes décrites.
 Cependant, il y a certaines informations erronées dans ce documentaire :
@@ -546,9 +562,9 @@
 les « reptiles mammaliens » tels qu'Edaphosaurus, Dimetrodon, Inostrancevia, Euchambersia, Diictodon et Lystrosaurus, ne sont, malgré leurs apparences, pas des reptiles mais un groupe bien distinct partageant un ancêtre commun avec les sauropsides ;
 Petrolacosaurus est identifié à tort comme un amniote ancestral aux synapsides, alors qu'il s'agit d'un reptile diapside qui ne peut être l'ancêtre d'aucun synapside (comme le montre la séquence ou il évolue vers Edaphosaurus). Des synapsides comme Archaeothyris, auraient été des candidats plus appropriés pour cette séquence du Carbonifère ;
 les genres Rhinesuchus et Diictodon ne sont connus qu'en Afrique du Sud, or l'épisode qui les met en scène se déroule en Sibérie ;
-l'« araignée géante » de la séquence du Carbonifère, du genre Megarachne, est en fait un céphalothorax de scorpion de mer (son classement comme « araignée » date de l'époque où l'on n'avait pas encore découvert son abdomen)[2] ;
-le Pareïasaure Scutosaurus est décrit comme un « ancêtre des tortues », or les récentes classifications phylogénétiques contestent cette affirmation[3] ;
-le poisson cartilagineux Stethacanthus, malgré son apparence, n'est pas un requin mais un holocéphale[4], donc un proche cousin des chimères actuels ;
+l'« araignée géante » de la séquence du Carbonifère, du genre Megarachne, est en fait un céphalothorax de scorpion de mer (son classement comme « araignée » date de l'époque où l'on n'avait pas encore découvert son abdomen) ;
+le Pareïasaure Scutosaurus est décrit comme un « ancêtre des tortues », or les récentes classifications phylogénétiques contestent cette affirmation ;
+le poisson cartilagineux Stethacanthus, malgré son apparence, n'est pas un requin mais un holocéphale, donc un proche cousin des chimères actuels ;
 les tailles de certains animaux tels qu'Hyneria, Hynerpeton, Inostrancevia, Anomalocaris ou Pterygotus, sont exagérées ;
 certaines dates des périodes sont anachroniques, car certains animaux était déjà éteints au moment des séquences présentées.</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sur_la_terre_des_g%C3%A9ants</t>
+          <t>Sur_la_terre_des_géants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Versions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux versions du documentaire. La première est sous forme de film, durant environ 1h30. La seconde est la forme originale du documentaire, c'est-à-dire sous forme de série, chaque épisode durant environ 25 minutes. Le doublage varie légèrement d'une version à l'autre[réf. nécessaire].
 </t>
